--- a/Dataset/Full_Dataset_Heatwave.xlsx
+++ b/Dataset/Full_Dataset_Heatwave.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacGy\Downloads\Treasure\Dati italia\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E5317-844B-4668-9E96-BFCE44A8DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500B740B-AF6D-4998-B3C5-0E599DA1D540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1725" yWindow="-19650" windowWidth="28800" windowHeight="15510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="3_months" sheetId="2" r:id="rId2"/>
+    <sheet name="3 months" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -22628,7 +22628,7 @@
   <dimension ref="A1:H853"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
-      <selection activeCell="F864" sqref="F864"/>
+      <selection activeCell="C864" sqref="C864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -44837,31 +44837,31 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
-        <f>AVERAGE('3_months'!E:E)</f>
+        <f>AVERAGE('3 months'!E:E)</f>
         <v>53.663594687268933</v>
       </c>
       <c r="D3">
-        <f>AVERAGE('3_months'!F:F)</f>
+        <f>AVERAGE('3 months'!F:F)</f>
         <v>15.405730959395273</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C4">
-        <f>_xlfn.STDEV.S('3_months'!E:E)</f>
+        <f>_xlfn.STDEV.S('3 months'!E:E)</f>
         <v>39.941344124511581</v>
       </c>
       <c r="D4">
-        <f>_xlfn.STDEV.S('3_months'!F:F)</f>
+        <f>_xlfn.STDEV.S('3 months'!F:F)</f>
         <v>6.5738072598202386</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
-        <f>MAX('3_months'!E:E)</f>
+        <f>MAX('3 months'!E:E)</f>
         <v>273.92452130998879</v>
       </c>
       <c r="D5">
-        <f>MAX('3_months'!F:F)</f>
+        <f>MAX('3 months'!F:F)</f>
         <v>35</v>
       </c>
     </row>
